--- a/biology/Botanique/Astilboides_tabularis/Astilboides_tabularis.xlsx
+++ b/biology/Botanique/Astilboides_tabularis/Astilboides_tabularis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Astilboides tabularis est une espèce de plante herbacée pérenne aux grandes feuilles rondes et rugueuses (dites peltées) de la famille des Saxifragaceae, originaire de Chine et de Corée. Elle croit dans la zone 5.
 C'est la seule espèce décrite à l'heure actuelle du genre Astilboides.
@@ -514,7 +526,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Saxifraga tabularis Hemsl.
 Rodgersia tabularis (Hemsl.) Komarov
